--- a/biology/Histoire de la zoologie et de la botanique/Robert_Sweet/Robert_Sweet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Sweet/Robert_Sweet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Sweet est un botaniste britannique, né en 1783 à Cockington près de Torquay dans le Devonshire et mort le 22 janvier 1835 à Chelsea, Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il commence à travailler comme jardinier à l'âge de seize ans dans diverses pépinières. Il est l'auteur de plusieurs publications botaniques, entre 1826 et 1831, principalement sur son travail en horticulture. Il fait ainsi paraître Hortus Suburbanus Londinensis (1818), Geraniaceae (cinq volumes) (1820–1830), Sweet's Hortus Britannicus (1826–1827), Flora Australasica (1827–1828) et British Botany (1831) avec Hugh Algernon Weddell (1819-1877).
 Parmi les espèces qu'il a décrites, il faut citer :
